--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H2">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J2">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.76805833333333</v>
+        <v>0.1869266666666667</v>
       </c>
       <c r="N2">
-        <v>71.304175</v>
+        <v>0.5607800000000001</v>
       </c>
       <c r="O2">
-        <v>0.8847414975178436</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="P2">
-        <v>0.8847414975178437</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="Q2">
-        <v>549.7282125037917</v>
+        <v>3.756478168715556</v>
       </c>
       <c r="R2">
-        <v>4947.553912534125</v>
+        <v>33.80830351844001</v>
       </c>
       <c r="S2">
-        <v>0.7005238828462792</v>
+        <v>0.04657553304559391</v>
       </c>
       <c r="T2">
-        <v>0.7005238828462793</v>
+        <v>0.04657553304559391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H3">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J3">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.050040666666667</v>
+        <v>2.050040666666666</v>
       </c>
       <c r="N3">
-        <v>6.150122000000001</v>
+        <v>6.150122</v>
       </c>
       <c r="O3">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721772</v>
       </c>
       <c r="P3">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721773</v>
       </c>
       <c r="Q3">
-        <v>47.41511382384334</v>
+        <v>41.19761587063955</v>
       </c>
       <c r="R3">
-        <v>426.73602441459</v>
+        <v>370.778542835756</v>
       </c>
       <c r="S3">
-        <v>0.06042152992329446</v>
+        <v>0.5107978359524842</v>
       </c>
       <c r="T3">
-        <v>0.06042152992329446</v>
+        <v>0.5107978359524842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.128865</v>
+        <v>20.09599933333334</v>
       </c>
       <c r="H4">
-        <v>69.386595</v>
+        <v>60.287998</v>
       </c>
       <c r="I4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515092</v>
       </c>
       <c r="J4">
-        <v>0.7917836846260858</v>
+        <v>0.9230842418515091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.046311</v>
+        <v>1.467747333333334</v>
       </c>
       <c r="N4">
-        <v>3.138933</v>
+        <v>4.403242000000001</v>
       </c>
       <c r="O4">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142495</v>
       </c>
       <c r="P4">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142496</v>
       </c>
       <c r="Q4">
-        <v>24.199985867015</v>
+        <v>29.49584943216845</v>
       </c>
       <c r="R4">
-        <v>217.799872803135</v>
+        <v>265.462644889516</v>
       </c>
       <c r="S4">
-        <v>0.03083827185651218</v>
+        <v>0.365710872853431</v>
       </c>
       <c r="T4">
-        <v>0.03083827185651218</v>
+        <v>0.365710872853431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J5">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>23.76805833333333</v>
+        <v>0.1869266666666667</v>
       </c>
       <c r="N5">
-        <v>71.304175</v>
+        <v>0.5607800000000001</v>
       </c>
       <c r="O5">
-        <v>0.8847414975178436</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="P5">
-        <v>0.8847414975178437</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="Q5">
-        <v>27.52592304149722</v>
+        <v>0.2164808319177778</v>
       </c>
       <c r="R5">
-        <v>247.733307373475</v>
+        <v>1.94832748726</v>
       </c>
       <c r="S5">
-        <v>0.03507654518972773</v>
+        <v>0.002684085914486142</v>
       </c>
       <c r="T5">
-        <v>0.03507654518972773</v>
+        <v>0.002684085914486142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J6">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.050040666666667</v>
+        <v>2.050040666666666</v>
       </c>
       <c r="N6">
-        <v>6.150122000000001</v>
+        <v>6.150122</v>
       </c>
       <c r="O6">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721772</v>
       </c>
       <c r="P6">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721773</v>
       </c>
       <c r="Q6">
         <v>2.374163712963778</v>
@@ -818,10 +818,10 @@
         <v>21.367473416674</v>
       </c>
       <c r="S6">
-        <v>0.00302541937067975</v>
+        <v>0.02943659872422579</v>
       </c>
       <c r="T6">
-        <v>0.00302541937067975</v>
+        <v>0.02943659872422579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="J7">
-        <v>0.03964609469334889</v>
+        <v>0.05319611498621682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.046311</v>
+        <v>1.467747333333334</v>
       </c>
       <c r="N7">
-        <v>3.138933</v>
+        <v>4.403242000000001</v>
       </c>
       <c r="O7">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142495</v>
       </c>
       <c r="P7">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142496</v>
       </c>
       <c r="Q7">
-        <v>1.211738698195667</v>
+        <v>1.699806503968222</v>
       </c>
       <c r="R7">
-        <v>10.905648283761</v>
+        <v>15.298258535714</v>
       </c>
       <c r="S7">
-        <v>0.001544130132941411</v>
+        <v>0.02107543034750489</v>
       </c>
       <c r="T7">
-        <v>0.001544130132941411</v>
+        <v>0.02107543034750489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H8">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J8">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>23.76805833333333</v>
+        <v>0.1869266666666667</v>
       </c>
       <c r="N8">
-        <v>71.304175</v>
+        <v>0.5607800000000001</v>
       </c>
       <c r="O8">
-        <v>0.8847414975178436</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="P8">
-        <v>0.8847414975178437</v>
+        <v>0.05045642741357319</v>
       </c>
       <c r="Q8">
-        <v>117.0367714003333</v>
+        <v>0.09652674985555557</v>
       </c>
       <c r="R8">
-        <v>1053.330942603</v>
+        <v>0.8687407487000001</v>
       </c>
       <c r="S8">
-        <v>0.1491410694818366</v>
+        <v>0.00119680845349314</v>
       </c>
       <c r="T8">
-        <v>0.1491410694818367</v>
+        <v>0.001196808453493139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H9">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J9">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.050040666666667</v>
+        <v>2.050040666666666</v>
       </c>
       <c r="N9">
-        <v>6.150122000000001</v>
+        <v>6.150122</v>
       </c>
       <c r="O9">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721772</v>
       </c>
       <c r="P9">
-        <v>0.07631065289230871</v>
+        <v>0.5533599348721773</v>
       </c>
       <c r="Q9">
-        <v>10.09464624754667</v>
+        <v>1.058617083125555</v>
       </c>
       <c r="R9">
-        <v>90.85181622792</v>
+        <v>9.527553748129998</v>
       </c>
       <c r="S9">
-        <v>0.01286370359833449</v>
+        <v>0.01312550019546726</v>
       </c>
       <c r="T9">
-        <v>0.01286370359833449</v>
+        <v>0.01312550019546727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.924119999999999</v>
+        <v>0.5163883333333333</v>
       </c>
       <c r="H10">
-        <v>14.77236</v>
+        <v>1.549165</v>
       </c>
       <c r="I10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="J10">
-        <v>0.1685702206805652</v>
+        <v>0.02371964316227407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.046311</v>
+        <v>1.467747333333334</v>
       </c>
       <c r="N10">
-        <v>3.138933</v>
+        <v>4.403242000000001</v>
       </c>
       <c r="O10">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142495</v>
       </c>
       <c r="P10">
-        <v>0.03894784958984768</v>
+        <v>0.3961836377142496</v>
       </c>
       <c r="Q10">
-        <v>5.152160921319999</v>
+        <v>0.7579275992144445</v>
       </c>
       <c r="R10">
-        <v>46.36944829187999</v>
+        <v>6.82134839293</v>
       </c>
       <c r="S10">
-        <v>0.006565447600394086</v>
+        <v>0.009397334513313668</v>
       </c>
       <c r="T10">
-        <v>0.006565447600394086</v>
+        <v>0.009397334513313668</v>
       </c>
     </row>
   </sheetData>
